--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF13D3AC-973E-4A88-A07E-DAA6C6A4BBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4A6DDC-BF24-45C9-8FA7-4CCF05C2B6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7065" yWindow="4185" windowWidth="20850" windowHeight="11145" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>所属ai</t>
   </si>
@@ -104,6 +104,14 @@
   </si>
   <si>
     <t>巡逻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_ZhuiJi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>追击</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -471,23 +479,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -510,7 +518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -533,7 +541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -556,7 +564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>101</v>
       </c>
@@ -573,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>102</v>
       </c>
@@ -598,25 +606,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475D6E4F-5837-CD4C-96C1-E77A9ED6A8D0}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -640,7 +648,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -664,38 +672,38 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>201</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -703,6 +711,24 @@
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
+        <v>202</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
